--- a/target/classes/com/jobget/testdata/data.xlsx
+++ b/target/classes/com/jobget/testdata/data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWorkspace\JobGetAssignment\src\main\java\com\jobget\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\MyWorkspace\JobGetAssignment\src\main\java\com\jobget\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C71EFE-21CF-4B67-9E38-26F8D5F80AC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED30CB6-3548-44A9-B62D-92018159218C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{07CC0909-41E2-4388-AC07-C4F1E580B8F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="EmployerDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
+    <sheet name="EmployerDetails" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>EXCHANGE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>test123</t>
   </si>
@@ -46,9 +43,6 @@
     <t>test456</t>
   </si>
   <si>
-    <t>akshata@yyy</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -59,6 +53,18 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>test123456</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>test@abc.com</t>
   </si>
 </sst>
 </file>
@@ -132,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -144,6 +150,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -460,11 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17BD4B2-3A86-4386-8050-58F70F0ED968}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BFBEE9-F493-4C37-BA03-B61F1A86D8D9}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,34 +482,100 @@
     <col min="2" max="2" width="30.90625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.90625" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2610EC44-7A03-4589-B3F2-62E7772760F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17BD4B2-3A86-4386-8050-58F70F0ED968}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -510,18 +585,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BFBEE9-F493-4C37-BA03-B61F1A86D8D9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/target/classes/com/jobget/testdata/data.xlsx
+++ b/target/classes/com/jobget/testdata/data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\MyWorkspace\JobGetAssignment\src\main\java\com\jobget\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED30CB6-3548-44A9-B62D-92018159218C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43875BD5-8C4F-4661-8E99-21B7CAB5C925}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{07CC0909-41E2-4388-AC07-C4F1E580B8F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{07CC0909-41E2-4388-AC07-C4F1E580B8F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
-    <sheet name="EmployerDetails" sheetId="1" r:id="rId2"/>
+    <sheet name="EmployerDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -35,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
-  <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>test456</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -64,7 +58,37 @@
     <t>India</t>
   </si>
   <si>
-    <t>test@abc.com</t>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>automationuser2@gmail.com</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>Company Website</t>
+  </si>
+  <si>
+    <t>AutomationTesting</t>
+  </si>
+  <si>
+    <t>AutomationUser</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
+  </si>
+  <si>
+    <t>automationuser4846@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@124!</t>
   </si>
 </sst>
 </file>
@@ -110,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -133,12 +157,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -154,6 +189,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -469,113 +513,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BFBEE9-F493-4C37-BA03-B61F1A86D8D9}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17BD4B2-3A86-4386-8050-58F70F0ED968}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{2610EC44-7A03-4589-B3F2-62E7772760F0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17BD4B2-3A86-4386-8050-58F70F0ED968}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
+      <c r="I2" s="8">
+        <v>8579904918</v>
       </c>
     </row>
   </sheetData>
@@ -585,4 +598,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BFBEE9-F493-4C37-BA03-B61F1A86D8D9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A8D3D21E-334C-44F3-9CD5-14AC3CA1FD95}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{9098959B-8BA4-4371-A936-B97C552B043D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/com/jobget/testdata/data.xlsx
+++ b/target/classes/com/jobget/testdata/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\MyWorkspace\JobGetAssignment\src\main\java\com\jobget\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43875BD5-8C4F-4661-8E99-21B7CAB5C925}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E459E481-FF4F-4923-927E-04E057BC5030}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{07CC0909-41E2-4388-AC07-C4F1E580B8F0}"/>
   </bookViews>
@@ -88,7 +88,7 @@
     <t>automationuser4846@gmail.com</t>
   </si>
   <si>
-    <t>Test@124!</t>
+    <t>Test@125!</t>
   </si>
 </sst>
 </file>

--- a/target/classes/com/jobget/testdata/data.xlsx
+++ b/target/classes/com/jobget/testdata/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\MyWorkspace\JobGetAssignment\src\main\java\com\jobget\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E459E481-FF4F-4923-927E-04E057BC5030}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C94E34-C966-4963-8DA5-40A9C97E5385}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{07CC0909-41E2-4388-AC07-C4F1E580B8F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{07CC0909-41E2-4388-AC07-C4F1E580B8F0}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployerDetails" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>user2</t>
   </si>
   <si>
-    <t>automationuser2@gmail.com</t>
-  </si>
-  <si>
     <t>CompanyName</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Test@125!</t>
+  </si>
+  <si>
+    <t>testautomation679@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17BD4B2-3A86-4386-8050-58F70F0ED968}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -570,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -579,16 +579,16 @@
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
       </c>
       <c r="I2" s="8">
-        <v>8579904918</v>
+        <v>9378842424</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BFBEE9-F493-4C37-BA03-B61F1A86D8D9}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -628,10 +628,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>

--- a/target/classes/com/jobget/testdata/data.xlsx
+++ b/target/classes/com/jobget/testdata/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\MyWorkspace\JobGetAssignment\src\main\java\com\jobget\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C94E34-C966-4963-8DA5-40A9C97E5385}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314D61DB-6D2D-4653-9A03-26DB48A2C1EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{07CC0909-41E2-4388-AC07-C4F1E580B8F0}"/>
   </bookViews>
@@ -88,7 +88,7 @@
     <t>Test@125!</t>
   </si>
   <si>
-    <t>testautomation679@gmail.com</t>
+    <t>testautomation675@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/target/classes/com/jobget/testdata/data.xlsx
+++ b/target/classes/com/jobget/testdata/data.xlsx
@@ -1,41 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\MyWorkspace\JobGetAssignment\src\main\java\com\jobget\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314D61DB-6D2D-4653-9A03-26DB48A2C1EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{07CC0909-41E2-4388-AC07-C4F1E580B8F0}"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="EmployerDetails" sheetId="1" r:id="rId1"/>
     <sheet name="LoginDetails" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>FirstName</t>
   </si>
@@ -49,58 +29,70 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>Company Website</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>autotestnew@xyz.com</t>
+  </si>
+  <si>
     <t>test123456</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
-    <t>automation</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
-    <t>Company Website</t>
-  </si>
-  <si>
     <t>AutomationTesting</t>
   </si>
   <si>
     <t>AutomationUser</t>
   </si>
   <si>
-    <t>MobileNumber</t>
-  </si>
-  <si>
-    <t>CountryCode</t>
-  </si>
-  <si>
     <t>automationuser4846@gmail.com</t>
   </si>
   <si>
-    <t>Test@125!</t>
-  </si>
-  <si>
-    <t>testautomation675@gmail.com</t>
+    <t>Auto!478709244</t>
+  </si>
+  <si>
+    <t>Auto!809059022</t>
+  </si>
+  <si>
+    <t>Auto!632758954</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,7 +100,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,11 +108,147 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +261,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -144,55 +458,294 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -200,18 +753,61 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -260,7 +856,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -293,26 +889,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -345,23 +924,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -503,86 +1065,81 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17BD4B2-3A86-4386-8050-58F70F0ED968}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="18.4571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="25.5428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="12.9047619047619" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.6285714285714" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.9047619047619" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.7238095238095" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.8190476190476" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.6285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
@@ -593,55 +1150,58 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F2F81F05-81D6-4005-8E35-A39947EB1A29}"/>
+    <hyperlink ref="C2" r:id="rId1" display="autotestnew@xyz.com" tooltip="mailto:autotestnew@xyz.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BFBEE9-F493-4C37-BA03-B61F1A86D8D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="31.5428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="21.2666666666667" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7238095238095" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A8D3D21E-334C-44F3-9CD5-14AC3CA1FD95}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{9098959B-8BA4-4371-A936-B97C552B043D}"/>
+    <hyperlink ref="A2" r:id="rId1" display="automationuser4846@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Auto!478709244"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/target/classes/com/jobget/testdata/data.xlsx
+++ b/target/classes/com/jobget/testdata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -50,7 +50,7 @@
     <t>user2</t>
   </si>
   <si>
-    <t>autotestnew@xyz.com</t>
+    <t>test8764@gmail.com</t>
   </si>
   <si>
     <t>test123456</t>
@@ -68,13 +68,7 @@
     <t>automationuser4846@gmail.com</t>
   </si>
   <si>
-    <t>Auto!478709244</t>
-  </si>
-  <si>
-    <t>Auto!809059022</t>
-  </si>
-  <si>
-    <t>Auto!632758954</t>
+    <t>Auto!554001231</t>
   </si>
 </sst>
 </file>
@@ -112,13 +106,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -126,7 +114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -135,17 +122,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,29 +136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -203,8 +159,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,13 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -241,8 +205,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,13 +257,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,169 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,45 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -567,6 +522,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -580,10 +550,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,127 +596,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,20 +1068,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="18.4571428571429" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="11.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="25.5428571428571" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="12.9047619047619" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.6285714285714" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.9047619047619" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.7238095238095" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.8190476190476" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.6285714285714" collapsed="true"/>
+    <col min="1" max="1" width="18.4571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.9047619047619" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="19.9047619047619" customWidth="1"/>
+    <col min="7" max="7" width="17.7238095238095" customWidth="1"/>
+    <col min="8" max="8" width="12.8190476190476" customWidth="1"/>
+    <col min="9" max="9" width="16.6285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1142,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="8">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="I2" s="8">
         <v>9378842424</v>
@@ -1150,7 +1144,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="autotestnew@xyz.com" tooltip="mailto:autotestnew@xyz.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="test8764@gmail.com" tooltip="mailto:test8764@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -1169,9 +1163,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="31.5428571428571" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="21.2666666666667" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.7238095238095" collapsed="true"/>
+    <col min="1" max="1" width="31.5428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.2666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7238095238095" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1190,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1199,7 +1193,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="automationuser4846@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Auto!478709244"/>
+    <hyperlink ref="B2" r:id="rId2" display="Auto!554001231"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/target/classes/com/jobget/testdata/data.xlsx
+++ b/target/classes/com/jobget/testdata/data.xlsx
@@ -50,7 +50,7 @@
     <t>user2</t>
   </si>
   <si>
-    <t>test8764@gmail.com</t>
+    <t>test8763@gmail.com</t>
   </si>
   <si>
     <t>test123456</t>
@@ -1144,7 +1144,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="test8764@gmail.com" tooltip="mailto:test8764@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="test8763@gmail.com" tooltip="mailto:test8763@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
